--- a/Unilever - TA.xlsx
+++ b/Unilever - TA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Year 3\CO656 Computational Intelligence in Business, Economics &amp; Finance\CO656-assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190B10D9-2821-4C64-A5F8-BDF024CE2180}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7B7495-1DB1-4F7A-941D-2C857DEB796E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33017" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -904,20 +904,20 @@
   <dimension ref="A1:J1321"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="S1290" sqref="S1290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -970,7 +970,7 @@
         <v>#REF!</v>
       </c>
       <c r="E2" t="e">
-        <f t="shared" ref="E2:E30" si="3">(STDEVP(#REF!)/((1/29)*SUM(#REF!)))</f>
+        <f t="shared" ref="E2" si="3">(STDEVP(#REF!)/((1/29)*SUM(#REF!)))</f>
         <v>#REF!</v>
       </c>
       <c r="F2" t="e">
@@ -1011,7 +1011,7 @@
         <v>#REF!</v>
       </c>
       <c r="E3" t="e">
-        <f t="shared" ref="E3:E30" si="10">(STDEVP(#REF!)/((1/29)*SUM(#REF!)))</f>
+        <f t="shared" ref="E3" si="10">(STDEVP(#REF!)/((1/29)*SUM(#REF!)))</f>
         <v>#REF!</v>
       </c>
       <c r="F3" t="e">
@@ -1052,7 +1052,7 @@
         <v>#REF!</v>
       </c>
       <c r="E4" t="e">
-        <f t="shared" ref="E4:E30" si="14">(STDEVP(#REF!)/((1/29)*SUM(#REF!)))</f>
+        <f t="shared" ref="E4" si="14">(STDEVP(#REF!)/((1/29)*SUM(#REF!)))</f>
         <v>#REF!</v>
       </c>
       <c r="F4" t="e">
@@ -1134,7 +1134,7 @@
         <v>#REF!</v>
       </c>
       <c r="E6" t="e">
-        <f t="shared" ref="E6:E30" si="21">(STDEVP(#REF!)/((1/29)*SUM(#REF!)))</f>
+        <f t="shared" ref="E6" si="21">(STDEVP(#REF!)/((1/29)*SUM(#REF!)))</f>
         <v>#REF!</v>
       </c>
       <c r="F6" t="e">
@@ -1175,7 +1175,7 @@
         <v>#REF!</v>
       </c>
       <c r="E7" t="e">
-        <f t="shared" ref="E7:E30" si="25">(STDEVP(#REF!)/((1/29)*SUM(#REF!)))</f>
+        <f t="shared" ref="E7" si="25">(STDEVP(#REF!)/((1/29)*SUM(#REF!)))</f>
         <v>#REF!</v>
       </c>
       <c r="F7" t="e">
@@ -1216,7 +1216,7 @@
         <v>#REF!</v>
       </c>
       <c r="E8" t="e">
-        <f t="shared" ref="E8:E30" si="28">(STDEVP(#REF!)/((1/29)*SUM(#REF!)))</f>
+        <f t="shared" ref="E8" si="28">(STDEVP(#REF!)/((1/29)*SUM(#REF!)))</f>
         <v>#REF!</v>
       </c>
       <c r="F8" t="e">
@@ -1257,7 +1257,7 @@
         <v>#REF!</v>
       </c>
       <c r="E9" t="e">
-        <f t="shared" ref="E9:E30" si="32">(STDEVP(#REF!)/((1/29)*SUM(#REF!)))</f>
+        <f t="shared" ref="E9" si="32">(STDEVP(#REF!)/((1/29)*SUM(#REF!)))</f>
         <v>#REF!</v>
       </c>
       <c r="F9" t="e">
@@ -1298,7 +1298,7 @@
         <v>#REF!</v>
       </c>
       <c r="E10" t="e">
-        <f t="shared" ref="E10:E30" si="36">(STDEVP(#REF!)/((1/29)*SUM(#REF!)))</f>
+        <f t="shared" ref="E10" si="36">(STDEVP(#REF!)/((1/29)*SUM(#REF!)))</f>
         <v>#REF!</v>
       </c>
       <c r="F10" t="e">
@@ -1339,7 +1339,7 @@
         <v>#REF!</v>
       </c>
       <c r="E11" t="e">
-        <f t="shared" ref="E11:E30" si="39">(STDEVP(#REF!)/((1/29)*SUM(#REF!)))</f>
+        <f t="shared" ref="E11" si="39">(STDEVP(#REF!)/((1/29)*SUM(#REF!)))</f>
         <v>#REF!</v>
       </c>
       <c r="F11" t="e">
@@ -1380,7 +1380,7 @@
         <v>#REF!</v>
       </c>
       <c r="E12" t="e">
-        <f t="shared" ref="E12:E30" si="43">(STDEVP(#REF!)/((1/29)*SUM(#REF!)))</f>
+        <f t="shared" ref="E12" si="43">(STDEVP(#REF!)/((1/29)*SUM(#REF!)))</f>
         <v>#REF!</v>
       </c>
       <c r="F12">
@@ -1421,7 +1421,7 @@
         <v>#REF!</v>
       </c>
       <c r="E13" t="e">
-        <f t="shared" ref="E13:E30" si="46">(STDEVP(#REF!)/((1/29)*SUM(#REF!)))</f>
+        <f t="shared" ref="E13" si="46">(STDEVP(#REF!)/((1/29)*SUM(#REF!)))</f>
         <v>#REF!</v>
       </c>
       <c r="F13">
@@ -1462,7 +1462,7 @@
         <v>#REF!</v>
       </c>
       <c r="E14" t="e">
-        <f t="shared" ref="E14:E30" si="50">(STDEVP(#REF!)/((1/29)*SUM(#REF!)))</f>
+        <f t="shared" ref="E14" si="50">(STDEVP(#REF!)/((1/29)*SUM(#REF!)))</f>
         <v>#REF!</v>
       </c>
       <c r="F14">
@@ -1503,7 +1503,7 @@
         <v>#REF!</v>
       </c>
       <c r="E15" t="e">
-        <f t="shared" ref="E15:E30" si="54">(STDEVP(#REF!)/((1/29)*SUM(#REF!)))</f>
+        <f t="shared" ref="E15" si="54">(STDEVP(#REF!)/((1/29)*SUM(#REF!)))</f>
         <v>#REF!</v>
       </c>
       <c r="F15">
@@ -1544,7 +1544,7 @@
         <v>#REF!</v>
       </c>
       <c r="E16" t="e">
-        <f t="shared" ref="E16:E30" si="57">(STDEVP(#REF!)/((1/29)*SUM(#REF!)))</f>
+        <f t="shared" ref="E16" si="57">(STDEVP(#REF!)/((1/29)*SUM(#REF!)))</f>
         <v>#REF!</v>
       </c>
       <c r="F16">
@@ -1585,7 +1585,7 @@
         <v>#REF!</v>
       </c>
       <c r="E17" t="e">
-        <f t="shared" ref="E17:E30" si="60">(STDEVP(#REF!)/((1/29)*SUM(#REF!)))</f>
+        <f t="shared" ref="E17" si="60">(STDEVP(#REF!)/((1/29)*SUM(#REF!)))</f>
         <v>#REF!</v>
       </c>
       <c r="F17">
@@ -1667,7 +1667,7 @@
         <v>#REF!</v>
       </c>
       <c r="E19" t="e">
-        <f t="shared" ref="E19:E30" si="64">(STDEVP(#REF!)/((1/29)*SUM(#REF!)))</f>
+        <f t="shared" ref="E19" si="64">(STDEVP(#REF!)/((1/29)*SUM(#REF!)))</f>
         <v>#REF!</v>
       </c>
       <c r="F19">
@@ -1708,7 +1708,7 @@
         <v>#REF!</v>
       </c>
       <c r="E20" t="e">
-        <f t="shared" ref="E20:E30" si="67">(STDEVP(#REF!)/((1/29)*SUM(#REF!)))</f>
+        <f t="shared" ref="E20" si="67">(STDEVP(#REF!)/((1/29)*SUM(#REF!)))</f>
         <v>#REF!</v>
       </c>
       <c r="F20">
@@ -1749,7 +1749,7 @@
         <v>#REF!</v>
       </c>
       <c r="E21" t="e">
-        <f t="shared" ref="E21:E30" si="70">(STDEVP(#REF!)/((1/29)*SUM(#REF!)))</f>
+        <f t="shared" ref="E21" si="70">(STDEVP(#REF!)/((1/29)*SUM(#REF!)))</f>
         <v>#REF!</v>
       </c>
       <c r="F21">
@@ -1790,7 +1790,7 @@
         <v>#REF!</v>
       </c>
       <c r="E22" t="e">
-        <f t="shared" ref="E22:E30" si="73">(STDEVP(#REF!)/((1/29)*SUM(#REF!)))</f>
+        <f t="shared" ref="E22" si="73">(STDEVP(#REF!)/((1/29)*SUM(#REF!)))</f>
         <v>#REF!</v>
       </c>
       <c r="F22">
@@ -1831,7 +1831,7 @@
         <v>#REF!</v>
       </c>
       <c r="E23" t="e">
-        <f t="shared" ref="E23:E30" si="75">(STDEVP(#REF!)/((1/29)*SUM(#REF!)))</f>
+        <f t="shared" ref="E23" si="75">(STDEVP(#REF!)/((1/29)*SUM(#REF!)))</f>
         <v>#REF!</v>
       </c>
       <c r="F23">
@@ -1872,7 +1872,7 @@
         <v>#REF!</v>
       </c>
       <c r="E24" t="e">
-        <f t="shared" ref="E24:E30" si="78">(STDEVP(#REF!)/((1/29)*SUM(#REF!)))</f>
+        <f t="shared" ref="E24" si="78">(STDEVP(#REF!)/((1/29)*SUM(#REF!)))</f>
         <v>#REF!</v>
       </c>
       <c r="F24">
@@ -1913,7 +1913,7 @@
         <v>#REF!</v>
       </c>
       <c r="E25" t="e">
-        <f t="shared" ref="E25:E30" si="80">(STDEVP(#REF!)/((1/29)*SUM(#REF!)))</f>
+        <f t="shared" ref="E25" si="80">(STDEVP(#REF!)/((1/29)*SUM(#REF!)))</f>
         <v>#REF!</v>
       </c>
       <c r="F25">
@@ -1954,7 +1954,7 @@
         <v>-1.2211294065642499E-2</v>
       </c>
       <c r="E26" t="e">
-        <f t="shared" ref="E26:E30" si="82">(STDEVP(#REF!)/((1/29)*SUM(#REF!)))</f>
+        <f t="shared" ref="E26" si="82">(STDEVP(#REF!)/((1/29)*SUM(#REF!)))</f>
         <v>#REF!</v>
       </c>
       <c r="F26">
@@ -1995,7 +1995,7 @@
         <v>4.5585147530114766E-3</v>
       </c>
       <c r="E27" t="e">
-        <f t="shared" ref="E27:E30" si="84">(STDEVP(#REF!)/((1/29)*SUM(#REF!)))</f>
+        <f t="shared" ref="E27" si="84">(STDEVP(#REF!)/((1/29)*SUM(#REF!)))</f>
         <v>#REF!</v>
       </c>
       <c r="F27">
@@ -2036,7 +2036,7 @@
         <v>1.5181100629795609E-2</v>
       </c>
       <c r="E28" t="e">
-        <f t="shared" ref="E28:E30" si="85">(STDEVP(#REF!)/((1/29)*SUM(#REF!)))</f>
+        <f t="shared" ref="E28" si="85">(STDEVP(#REF!)/((1/29)*SUM(#REF!)))</f>
         <v>#REF!</v>
       </c>
       <c r="F28">
@@ -53864,7 +53864,7 @@
         <v>2.0981034804365223E-2</v>
       </c>
       <c r="F1292">
-        <f t="shared" ref="F1292:F1355" si="263">A1292-A1282</f>
+        <f t="shared" ref="F1292:F1321" si="263">A1292-A1282</f>
         <v>-2.7599999999999909</v>
       </c>
       <c r="G1292">
